--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series_20101_20181/AR2_50_6_qoq_errors_latest_eval_20101_20181.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series_20101_20181/AR2_50_6_qoq_errors_latest_eval_20101_20181.xlsx
@@ -517,12 +517,6 @@
       <c r="F3">
         <v>0.3329321255475683</v>
       </c>
-      <c r="G3">
-        <v>0.101692144383436</v>
-      </c>
-      <c r="H3">
-        <v>0.2070326302046627</v>
-      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
@@ -569,12 +563,6 @@
       <c r="F5">
         <v>0.6140076662505021</v>
       </c>
-      <c r="G5">
-        <v>0.8719046650920586</v>
-      </c>
-      <c r="H5">
-        <v>-0.8522446856725341</v>
-      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -621,12 +609,6 @@
       <c r="F7">
         <v>0.1430861830955678</v>
       </c>
-      <c r="G7">
-        <v>-0.7574275902997809</v>
-      </c>
-      <c r="H7">
-        <v>0.3130368251941282</v>
-      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -673,12 +655,6 @@
       <c r="F9">
         <v>-0.4758419697301518</v>
       </c>
-      <c r="G9">
-        <v>0.5026967102291701</v>
-      </c>
-      <c r="H9">
-        <v>-0.2339395072814273</v>
-      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -725,12 +701,6 @@
       <c r="F11">
         <v>-0.2597897169002801</v>
       </c>
-      <c r="G11">
-        <v>-0.623363232311934</v>
-      </c>
-      <c r="H11">
-        <v>0.03314284490197711</v>
-      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -777,12 +747,6 @@
       <c r="F13">
         <v>-0.1415591146121002</v>
       </c>
-      <c r="G13">
-        <v>-0.9712799915822796</v>
-      </c>
-      <c r="H13">
-        <v>-0.3907277485715169</v>
-      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -829,12 +793,6 @@
       <c r="F15">
         <v>-0.6554532109500923</v>
       </c>
-      <c r="G15">
-        <v>0.9101489502747081</v>
-      </c>
-      <c r="H15">
-        <v>-0.4249983366195054</v>
-      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -880,12 +838,6 @@
       </c>
       <c r="F17">
         <v>-0.04069625057600418</v>
-      </c>
-      <c r="G17">
-        <v>-0.2561834828541579</v>
-      </c>
-      <c r="H17">
-        <v>0.3398831621955681</v>
       </c>
     </row>
     <row r="18" spans="1:8">
